--- a/installationdocs/04.1_ProjectsMapping.xlsx
+++ b/installationdocs/04.1_ProjectsMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/o_ugur_exeter_ac_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ou213\OneDrive - University of Exeter\Desktop\git\metadata-schema\installationdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC1048A6595D604E5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E77D301-452E-41D7-9779-739A6FBDC532}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1ED7F-E457-42D0-844F-0EC801FD0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="2700" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Rule type</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>{"relationshipType": "related", "collectionType": "internal", "matchOn": ["labels"], "dontCreate": "1", "delimiter": ";"}</t>
+  </si>
+  <si>
+    <t>ca_collections.access</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,20 +845,50 @@
       </c>
       <c r="D12" s="6"/>
     </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="8"/>
+    </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -867,16 +896,16 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="8"/>
@@ -886,16 +915,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="8"/>
@@ -905,51 +934,48 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -957,13 +983,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -973,62 +999,46 @@
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>57</v>
       </c>
     </row>
